--- a/Resource/excel/P-排行-排行配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/P-排行-排行配置-(框架定义,策划填写).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="rank" sheetId="2" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -22,13 +27,14 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -37,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -46,13 +53,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -61,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -68,13 +77,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -83,6 +93,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,26 +104,28 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -121,6 +134,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -212,23 +226,18 @@
     <t>300</t>
   </si>
   <si>
-    <t>basic:grade:1000000,player:kill:1000000</t>
-  </si>
-  <si>
     <t>id,name</t>
+  </si>
+  <si>
+    <t>basic:0:grade:1000000,player:0:kill:1000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -239,378 +248,46 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -618,251 +295,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -904,68 +339,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="11"/>
         <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -975,7 +362,58 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -991,18 +429,21 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1331,19 +772,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="3" customWidth="1"/>
@@ -1367,7 +808,7 @@
     <col min="20" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1385,7 +826,7 @@
       <c r="G1" s="10"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1417,7 +858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1449,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="72" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1481,7 +922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:19">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1497,48 +938,22 @@
       <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
       <c r="J5" s="3">
         <v>0</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="8"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="4:19">
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="4:19">
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="4:19">
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="S8" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A65536">
-    <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A65536">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
@@ -1549,7 +964,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resource/excel/P-排行-排行配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/P-排行-排行配置-(框架定义,策划填写).xlsx
@@ -89,36 +89,9 @@
           </rPr>
           <t>PCC:</t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
- 2 每天几点  几分
- 3 每周几 几点  几分
- 4 每月 几号  几点 几分
- 6 每隔多少分钟( 刷新时间填秒 )</t>
-        </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>PCC:</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>*dark_config</t>
   </si>
@@ -172,18 +145,6 @@
     <t>最大数量</t>
   </si>
   <si>
-    <t>刷新类型</t>
-  </si>
-  <si>
-    <t>刷新时间</t>
-  </si>
-  <si>
-    <t>刷新时间点( 小时 )</t>
-  </si>
-  <si>
-    <t>刷新时间点( 分钟 )</t>
-  </si>
-  <si>
     <t>刷新清空数据</t>
   </si>
   <si>
@@ -202,18 +163,6 @@
     <t>MaxCount(int)</t>
   </si>
   <si>
-    <t>RefreshType(int)</t>
-  </si>
-  <si>
-    <t>RefreshTime(int)</t>
-  </si>
-  <si>
-    <t>RefreshHour(int)</t>
-  </si>
-  <si>
-    <t>RefreshMinute(int)</t>
-  </si>
-  <si>
     <t>RefreshReset(int)</t>
   </si>
   <si>
@@ -223,13 +172,56 @@
     <t>ShowData(string)</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>id,name</t>
   </si>
   <si>
+    <t>刷新时间Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RefreshTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>basic:0:grade:1000000,player:0:kill:1000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -278,6 +270,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,15 +313,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -332,10 +325,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -790,25 +783,22 @@
     <col min="2" max="2" width="22.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0.125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="3" customWidth="1"/>
-    <col min="11" max="11" width="47.125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="25.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="7.5" style="3"/>
-    <col min="15" max="15" width="4.5" style="3"/>
-    <col min="16" max="16" width="7.5" style="3"/>
-    <col min="17" max="17" width="38.125" style="3"/>
-    <col min="18" max="18" width="38.875" style="3"/>
-    <col min="19" max="19" width="12.25" style="8"/>
-    <col min="20" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="18.5" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0.125" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="3" customWidth="1"/>
+    <col min="8" max="8" width="47.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="3"/>
+    <col min="12" max="12" width="4.5" style="3"/>
+    <col min="13" max="13" width="7.5" style="3"/>
+    <col min="14" max="14" width="38.125" style="3"/>
+    <col min="15" max="15" width="38.875" style="3"/>
+    <col min="16" max="16" width="12.25" style="6"/>
+    <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,15 +808,12 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -837,28 +824,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -871,58 +849,40 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -932,38 +892,36 @@
       <c r="C5" s="3">
         <v>100</v>
       </c>
-      <c r="D5" s="4">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>25</v>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A65536">
-    <cfRule type="duplicateValues" dxfId="3" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="2" priority="2" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A65536">
     <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N5:N65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K5:K65536">
       <formula1>"主线任务,次要任务,日常任务,随机任务,教学任务,隐藏任务,剧情任务"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>